--- a/InputFiles/CCDI/TC01_CCDI_phs002504.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0307\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5099C-5EDB-4ABE-91CD-09BC99AA6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC2B09-C3DB-4C5D-B9FB-1B5F2E9B9E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,66 +144,6 @@
     std.dbgap_accession = 'phs002504';</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-   smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID" , std.id, smp.anatomic_site AS "Sample Anatomic Site", dgn. "participant.id",
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
---COALESCE(CASE WHEN dgn."participant.id" is null THEN dgn.diagnosis ELSE dgn.diagnosis_comment END,dgn.diagnosis_comment) AS "Sample Diagnosis1",
- dgn.diagnosis as "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp."id" = dgn."sample.id"
-WHERE 
-   std.dbgap_accession = 'phs002504'
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
-SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	trt1.treatment_type AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    treatment1 trt1 ON prt.id = trt1."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs002504'
-ORDER BY 
-    prt.participant_id ASC 
-;</t>
-  </si>
-  <si>
     <t>with file_data as (
 select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_sequencing_file
 union
@@ -236,7 +176,68 @@
 JOIN 
     file_data fd ON smp.id = fd."sample.id"
 WHERE 
-    std.dbgap_accession = 'phs002504';</t>
+    std.dbgap_accession = 'phs002504'
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+   smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID" , std.id, smp.anatomic_site AS "Sample Anatomic Site", dgn. "participant.id",
+    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+--COALESCE(CASE WHEN dgn."participant.id" is null THEN dgn.diagnosis ELSE dgn.diagnosis_comment END,dgn.diagnosis_comment) AS "Sample Diagnosis1",
+ dgn.diagnosis as "Sample Diagnosis"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON smp."id" = dgn."sample.id"
+WHERE 
+   std.dbgap_accession = 'phs002504'
+AND smp.sample_id IS NOT NULL
+ORDER BY 
+   smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>with diagnosis1 as (
+select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
+diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
+diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
+treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
+SELECT DISTINCT
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+	dgn2.diag AS "Diagnosis",
+	dgn3.ant_site AS "Diagnosis Anatomic Site",
+	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
+	trt1.treatment_type AS "Treatment Type",
+	srv.last_known_survival_status AS "Last Known Survival Status"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
+LEFT JOIN 
+    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
+LEFT JOIN 
+    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    treatment1 trt1 ON prt.id = trt1."participant.id"
+WHERE 
+    std.dbgap_accession = 'phs002504'
+ORDER BY 
+    prt.participant_id ASC 
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -638,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -698,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -707,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>
